--- a/data/gps_data.xlsx
+++ b/data/gps_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11206"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescabianchessi/Documents/UNIVERSITA/DSBA_2/FINANCE/GROUP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cirib\repos\FinTech-\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E589B36-E517-7F42-B4C2-29AD922A7577}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58E2811-1F55-4C14-8A0E-6745E06E4C3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5DEE5783-1D32-7247-9C0F-4DC0EC75FB16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DEE5783-1D32-7247-9C0F-4DC0EC75FB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,19 +41,19 @@
     <t xml:space="preserve">surname </t>
   </si>
   <si>
-    <t xml:space="preserve">Disposal Station </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bologna </t>
-  </si>
-  <si>
     <t>lat</t>
   </si>
   <si>
     <t>long</t>
+  </si>
+  <si>
+    <t>Disposal Station</t>
+  </si>
+  <si>
+    <t>Milano</t>
+  </si>
+  <si>
+    <t>Bologna</t>
   </si>
 </sst>
 </file>
@@ -62,7 +61,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -103,7 +102,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -421,15 +420,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,18 +436,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="2">
         <v>45.464199999999998</v>
@@ -457,12 +456,12 @@
         <v>9.19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>44.494900000000001</v>
